--- a/pandas_Data_preProcessing.xlsx
+++ b/pandas_Data_preProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7B15F-DC24-404E-8807-7EF56EBBBF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B21329-C113-4CB1-8E5C-0941783F2013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="18" xr2:uid="{837EDD29-B59E-4EAF-B867-E013FABEEF3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{837EDD29-B59E-4EAF-B867-E013FABEEF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1_overview" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="4g_TS_EDA" sheetId="19" r:id="rId10"/>
     <sheet name="5a_FS_Numeric" sheetId="8" r:id="rId11"/>
     <sheet name="5b_FS_Categorical" sheetId="9" r:id="rId12"/>
-    <sheet name="6_FEngg" sheetId="10" r:id="rId13"/>
-    <sheet name="7_split_data" sheetId="11" r:id="rId14"/>
-    <sheet name="8_PreProcess_2" sheetId="12" r:id="rId15"/>
-    <sheet name="9_model_1" sheetId="13" r:id="rId16"/>
-    <sheet name="10_Model_validation" sheetId="14" r:id="rId17"/>
-    <sheet name="11_Model_Evaluation" sheetId="15" r:id="rId18"/>
-    <sheet name="12_Model_Interpretation" sheetId="16" r:id="rId19"/>
+    <sheet name="6a_FEngg_N" sheetId="10" r:id="rId13"/>
+    <sheet name="6b_FEngg_C" sheetId="20" r:id="rId14"/>
+    <sheet name="7_split_data" sheetId="11" r:id="rId15"/>
+    <sheet name="8_PreProcess_2" sheetId="12" r:id="rId16"/>
+    <sheet name="9_model_1" sheetId="13" r:id="rId17"/>
+    <sheet name="10_Model_validation" sheetId="14" r:id="rId18"/>
+    <sheet name="11_Model_Evaluation" sheetId="15" r:id="rId19"/>
+    <sheet name="12_Model_Interpretation" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="381">
   <si>
     <t>Step Number</t>
   </si>
@@ -498,93 +499,9 @@
     <t>1. Polynomial Features</t>
   </si>
   <si>
-    <t>Create new features by raising existing numerical features to a power or creating interactions between them.</t>
-  </si>
-  <si>
-    <t>Useful for algorithms that can’t model complex relationships inherently, like linear regression.</t>
-  </si>
-  <si>
-    <t>2. Binning/Bucketing</t>
-  </si>
-  <si>
-    <t>Convert continuous numerical features into categorical by dividing them into ranges (bins).</t>
-  </si>
-  <si>
-    <t>Creating age groups from an age feature.</t>
-  </si>
-  <si>
-    <t>3. One-Hot Encoding</t>
-  </si>
-  <si>
-    <t>Convert categorical variables into a format that can be provided to ML algorithms to improve predictions.</t>
-  </si>
-  <si>
-    <t>Turning categorical into binary vectors.</t>
-  </si>
-  <si>
-    <t>4. Encoding Categorical Values</t>
-  </si>
-  <si>
-    <t>Transform categorical values into numerical format, either by assigning an integer to each category (Label Encoding) or using the mean of the target variable (Target Encoding).</t>
-  </si>
-  <si>
-    <t>Assigning numbers to categories or the average target value per category.</t>
-  </si>
-  <si>
     <t>5. Feature Scaling</t>
   </si>
   <si>
-    <t>Standardizing or normalizing numerical features so that they are on a similar scale.</t>
-  </si>
-  <si>
-    <t>Applying Min-Max scaling, Standard scaling, or Robust scaling.</t>
-  </si>
-  <si>
-    <t>6. Date &amp; Time Feature Engineering</t>
-  </si>
-  <si>
-    <t>Extracting components like the year, month, day, weekday, or time from date/time features.</t>
-  </si>
-  <si>
-    <t>Converting timestamps into separate date and time components, extracting the day of the week, etc.</t>
-  </si>
-  <si>
-    <t>7. Text Feature Engineering</t>
-  </si>
-  <si>
-    <t>Extracting features from text data, like word count, character count, average word length, etc.</t>
-  </si>
-  <si>
-    <t>Creating bag-of-words models, TF-IDF matrices, or word embeddings for text data.</t>
-  </si>
-  <si>
-    <t>8. Domain-Specific Engineering</t>
-  </si>
-  <si>
-    <t>Creating features that make sense based on knowledge of the domain.</t>
-  </si>
-  <si>
-    <t>In finance, this might include creating features like PE Ratio for stock data.</t>
-  </si>
-  <si>
-    <t>9. Interaction Terms</t>
-  </si>
-  <si>
-    <t>Combining two or more features to create a new one that might help to better represent the data.</t>
-  </si>
-  <si>
-    <t>Multiplying, adding, or dividing features to create new interactions.</t>
-  </si>
-  <si>
-    <t>10. Aggregate Features</t>
-  </si>
-  <si>
-    <t>Creating features that summarize groups of data, like count, sum, mean, max, or min.</t>
-  </si>
-  <si>
-    <t>Counting the number of previous purchases for a customer in e-commerce data.</t>
-  </si>
-  <si>
     <t>Identify Features and Target</t>
   </si>
   <si>
@@ -873,9 +790,6 @@
     <t>Choose appropriate interpretation and explanation techniques. Techniques can vary depending on the model type and the audience’s technical expertise. Common methods include SHAP, LIME, permutation importance, partial dependence plots, etc.</t>
   </si>
   <si>
-    <t>Generate Interpretations</t>
-  </si>
-  <si>
     <t>Use the selected technique(s) to generate insights into how the model makes predictions. Analyze feature importances, interaction effects, and individual predictions.</t>
   </si>
   <si>
@@ -1096,6 +1010,183 @@
   </si>
   <si>
     <t>Analyze the frequency domain of the time series using techniques like Fourier Transform to identify cyclic patterns not visible in the time domain.</t>
+  </si>
+  <si>
+    <t>Generate new features by raising existing numerical features to a power or creating interactions between them.</t>
+  </si>
+  <si>
+    <t>Useful for algorithms that can't model complex relationships inherently, like linear regression.</t>
+  </si>
+  <si>
+    <t>2. Log Transformation</t>
+  </si>
+  <si>
+    <t>Apply logarithmic transformation to skewed numerical features to approximate a normal distribution.</t>
+  </si>
+  <si>
+    <t>Helpful in stabilizing variance and making the data more linearly separable.</t>
+  </si>
+  <si>
+    <t>3. Square Root Transformation</t>
+  </si>
+  <si>
+    <t>Apply square root transformation to transform skewed numerical data. It is a milder transformation than logarithmic transformation.</t>
+  </si>
+  <si>
+    <t>Used to reduce the influence of very large values or ranges in the feature.</t>
+  </si>
+  <si>
+    <t>4. Binning/Bucketing</t>
+  </si>
+  <si>
+    <t>Convert continuous numerical features into discrete intervals (or 'bins').</t>
+  </si>
+  <si>
+    <t>Grouping age into categories like 0-18, 19-35, 36-60, and 60+ to analyze different age groups.</t>
+  </si>
+  <si>
+    <t>Adjust the scale of numerical features using techniques like Min-Max Scaling, Z-score Normalization, or Robust Scaling.</t>
+  </si>
+  <si>
+    <t>Essential for algorithms that rely on the magnitude or scale of the feature, like k-NN, SVM, and neural networks.</t>
+  </si>
+  <si>
+    <t>6. Quantile Transformation</t>
+  </si>
+  <si>
+    <t>Transform numerical features to follow a uniform or normal distribution, thereby mitigating the effects of outliers.</t>
+  </si>
+  <si>
+    <t>Useful when you need features that are robust to outliers and follow a specific distribution.</t>
+  </si>
+  <si>
+    <t>7. Power Transformation</t>
+  </si>
+  <si>
+    <t>Apply power transformation (e.g., Box-Cox) to make data more Gaussian-like.</t>
+  </si>
+  <si>
+    <t>Used to stabilize variance and make the data more normal distribution-like.</t>
+  </si>
+  <si>
+    <t>8. Clipping</t>
+  </si>
+  <si>
+    <t>Limit the values of a numerical feature within a specified range, effectively handling outliers.</t>
+  </si>
+  <si>
+    <t>Set a maximum and/or minimum threshold value beyond which data points are treated as outliers and clipped.</t>
+  </si>
+  <si>
+    <t>9. Z-Score Normalization</t>
+  </si>
+  <si>
+    <t>Standardize numerical features using the z-score, adjusting the distribution to have a mean of 0 and standard deviation of 1.</t>
+  </si>
+  <si>
+    <t>Useful when features have different units or scales, often used in clustering and PCA.</t>
+  </si>
+  <si>
+    <t>10. Rolling Window Features</t>
+  </si>
+  <si>
+    <t>Generate statistical features (mean, median, standard deviation, etc.) over a rolling window for time-series data.</t>
+  </si>
+  <si>
+    <t>Calculating a moving average for stock prices over a defined time window, helping to smooth out short-term fluctuations.</t>
+  </si>
+  <si>
+    <t>1. One-Hot Encoding</t>
+  </si>
+  <si>
+    <t>Convert categorical variables into a format that can be provided to ML algorithms by creating binary columns for each category.</t>
+  </si>
+  <si>
+    <t>Turning a single categorical column with N categories into N binary columns. Useful for linear models.</t>
+  </si>
+  <si>
+    <t>2. Label Encoding</t>
+  </si>
+  <si>
+    <t>Assign each unique category in a categorical variable a unique integer.</t>
+  </si>
+  <si>
+    <t>Assigning numbers 0 through N-1 to N categories. Suitable for tree-based models.</t>
+  </si>
+  <si>
+    <t>3. Ordinal Encoding</t>
+  </si>
+  <si>
+    <t>Convert categorical columns to integer by assigning integer values to categories based on order (useful for ordinal categories).</t>
+  </si>
+  <si>
+    <t>Encoding categories like "low", "medium", "high" as 0, 1, 2.</t>
+  </si>
+  <si>
+    <t>4. Frequency (or Count) Encoding</t>
+  </si>
+  <si>
+    <t>Replace categories with the count of occurrences or frequency of each category in the dataset.</t>
+  </si>
+  <si>
+    <t>Useful for handling high cardinality categorical features.</t>
+  </si>
+  <si>
+    <t>5. Target (Mean) Encoding</t>
+  </si>
+  <si>
+    <t>Replace category with the mean of the target variable for that category. Be careful to avoid data leakage.</t>
+  </si>
+  <si>
+    <t>Useful for encoding high cardinality features in supervised learning tasks.</t>
+  </si>
+  <si>
+    <t>6. Binary Encoding</t>
+  </si>
+  <si>
+    <t>Convert categorical variable into binary digits representing the integer values of the categories. Each binary digit becomes a separate column.</t>
+  </si>
+  <si>
+    <t>Useful for reducing the dimensionality of highly cardinal categorical features.</t>
+  </si>
+  <si>
+    <t>7. Embedding Layers (Deep Learning)</t>
+  </si>
+  <si>
+    <t>Trainable layer that can learn to represent categorical data in lower-dimensional space. Suitable for neural networks.</t>
+  </si>
+  <si>
+    <t>Effective for large-scale categorical data often encountered in deep learning applications, like NLP or recommender systems.</t>
+  </si>
+  <si>
+    <t>8. Feature Hashing (Hashing Trick)</t>
+  </si>
+  <si>
+    <t>Transform categorical variable into a fixed-length vector. Avoids the need for explicit category encoding.</t>
+  </si>
+  <si>
+    <t>Useful for handling categorical features with large cardinality in online learning or with large datasets.</t>
+  </si>
+  <si>
+    <t>9. Creating Indicator Variables</t>
+  </si>
+  <si>
+    <t>Generate binary features indicating the presence or absence of specific characteristics or attributes associated with a category.</t>
+  </si>
+  <si>
+    <t>If a categorical feature represents colors, create binary 'is_red', 'is_blue', etc. columns.</t>
+  </si>
+  <si>
+    <t>10. Combination of Categorical Features</t>
+  </si>
+  <si>
+    <t>Combine two or more categorical features into a single feature, often to represent interactions between the features.</t>
+  </si>
+  <si>
+    <t>If there are two features 'country' and 'city', a new feature 'country_city' could represent the combination of both.</t>
+  </si>
+  <si>
+    <t>*-</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1285,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1512,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BBACD-07E3-474D-A365-CFC9AB5E4288}">
   <dimension ref="D2:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -1697,7 +1799,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -1705,10 +1807,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -1719,7 +1821,7 @@
         <v>57</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1727,10 +1829,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -1741,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -1749,10 +1851,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1760,10 +1862,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -1771,10 +1873,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -1782,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1900,7 @@
   <dimension ref="E2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1938,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88710F8-6DD6-4121-8E45-CC8AB7C61E8F}">
   <dimension ref="E2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2079,13 +2181,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C60E1B-F397-47B6-A86D-E81CDFBC0E74}">
   <dimension ref="E2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="20.08984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.54296875" style="6" customWidth="1"/>
     <col min="7" max="7" width="38.36328125" style="6" customWidth="1"/>
   </cols>
@@ -2101,114 +2203,114 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E3" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="E6" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="E5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="E6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="E7" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="58" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E8" s="9" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>167</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="58" x14ac:dyDescent="0.35">
       <c r="E9" s="9" t="s">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="58" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="E10" s="9" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E11" s="9" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="58" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="E12" s="9" t="s">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2217,11 +2319,152 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB72CE7-FD07-49CC-B19F-872536C19400}">
+  <dimension ref="E2:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="34.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E3" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E5" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="E6" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E9" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E11" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553860FF-C6D2-4DFE-A763-4DBD72127548}">
   <dimension ref="E2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2247,21 +2490,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="29" x14ac:dyDescent="0.35">
       <c r="E4" s="5" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2269,10 +2512,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2280,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2291,21 +2534,21 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E8" s="5" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2313,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="29" x14ac:dyDescent="0.35">
@@ -2324,10 +2567,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2335,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2346,12 +2589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A458706-FB82-4BFC-A5AF-8915274AB94A}">
   <dimension ref="E2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2377,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2388,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2399,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2410,10 +2653,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2421,10 +2664,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2432,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="29" x14ac:dyDescent="0.35">
@@ -2443,10 +2686,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2454,12 +2697,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7537E16-B10A-423C-8CDC-6A9A74090CDA}">
   <dimension ref="E2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H12" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,10 +2728,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -2496,10 +2739,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="87" x14ac:dyDescent="0.35">
@@ -2507,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2518,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2529,10 +2772,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2540,10 +2783,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2551,10 +2794,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2562,10 +2805,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2573,10 +2816,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -2584,10 +2827,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2595,12 +2838,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538AEA96-7AEF-4D22-8024-A59DEE5CB4E7}">
   <dimension ref="F2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2631,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2642,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -2653,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2664,10 +2907,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -2675,10 +2918,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -2686,10 +2929,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -2697,10 +2940,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2708,10 +2951,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -2719,10 +2962,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -2730,10 +2973,10 @@
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2741,12 +2984,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759CC929-7ED1-48C0-8861-DA6144D4722E}">
   <dimension ref="E2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="4" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0A806-46FA-499E-B5FD-F9146FDB4E96}">
+  <dimension ref="D2:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="38.36328125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99A04C8-5134-4A0B-86E9-41535D20A1FB}">
+  <dimension ref="E2:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="F905" sqref="F905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,26 +3237,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E4" s="5">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -2794,87 +3264,87 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="E6" s="5">
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E8" s="5">
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="E9" s="5">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="58" x14ac:dyDescent="0.35">
       <c r="E10" s="5">
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="E11" s="5">
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="E12" s="5">
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2882,153 +3352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99A04C8-5134-4A0B-86E9-41535D20A1FB}">
-  <dimension ref="E2:G12"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C22099-8064-4796-8FB9-56D95563FA63}">
+  <dimension ref="D2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="8.7265625" style="5"/>
-    <col min="6" max="6" width="22.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="E8" s="5">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="E9" s="5">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="E10" s="5">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="E11" s="5">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0A806-46FA-499E-B5FD-F9146FDB4E96}">
-  <dimension ref="D2:F7"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3054,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="4:6" ht="29" x14ac:dyDescent="0.35">
@@ -3065,10 +3394,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="29" x14ac:dyDescent="0.35">
@@ -3076,92 +3405,6 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C22099-8064-4796-8FB9-56D95563FA63}">
-  <dimension ref="D2:F10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="38.36328125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -3224,6 +3467,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3232,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C699B30-6631-49D7-B7BE-49956E71FFEC}">
   <dimension ref="D2:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="D2:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3373,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8317E4E-39B4-4876-BA25-3B727FE2E063}">
   <dimension ref="E2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3514,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F54AE9B-AB5B-4975-8C3D-CD46F60E8AF4}">
   <dimension ref="E2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3775,7 +4021,7 @@
   <dimension ref="E2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3801,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3812,10 +4058,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -3823,10 +4069,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -3834,10 +4080,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -3845,10 +4091,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3856,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3867,10 +4113,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -3878,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -3889,10 +4135,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="87" x14ac:dyDescent="0.35">
@@ -3900,10 +4146,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="5:7" ht="116" x14ac:dyDescent="0.35">
@@ -3911,10 +4157,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3942,7 +4188,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -3953,10 +4199,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="29" x14ac:dyDescent="0.35">
@@ -3964,10 +4210,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3975,10 +4221,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3986,10 +4232,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="29" x14ac:dyDescent="0.35">
@@ -3997,10 +4243,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="29" x14ac:dyDescent="0.35">
@@ -4008,10 +4254,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="29" x14ac:dyDescent="0.35">
@@ -4019,10 +4265,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -4030,10 +4276,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="58" x14ac:dyDescent="0.35">
@@ -4041,10 +4287,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -4052,10 +4298,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
